--- a/CashFlow/WAB_cashflow.xlsx
+++ b/CashFlow/WAB_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6894000000.0</v>
+        <v>193100000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>7008000000.0</v>
+        <v>180800000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5563200000.0</v>
+        <v>205000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3694500000.0</v>
+        <v>78200000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1966600000.0</v>
+        <v>157100000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>255900000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-161800000.0</v>
+        <v>2924000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-269000000.0</v>
+        <v>3964000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-234100000.0</v>
+        <v>3024300000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-184600000.0</v>
+        <v>2056900000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-12100000.0</v>
+        <v>1135100000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-11900000.0</v>
@@ -3752,10 +3752,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-103100000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-207200000.0</v>
